--- a/results/WOW.xlsx
+++ b/results/WOW.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6272,6 +6272,2060 @@
       </c>
       <c r="P120" t="n">
         <v>-6.902394039402347</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>61</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>0.6428712606430054</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15.61183022903708</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>15.61183022903708</v>
+      </c>
+      <c r="H121" t="n">
+        <v>52</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>83</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>0.7083421945571899</v>
+      </c>
+      <c r="E122" t="n">
+        <v>18.03572194907274</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>19.08335425485239</v>
+      </c>
+      <c r="H122" t="n">
+        <v>52</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-7.590752510758782</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1.047632305779644</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>183</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>0.8610332012176514</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67.24983282268683</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>67.24983282268683</v>
+      </c>
+      <c r="H123" t="n">
+        <v>52</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-7.62195801122595</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>312</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>1.656534075737</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.36942785395669</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>16.65744097705431</v>
+      </c>
+      <c r="H124" t="n">
+        <v>50</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-16.70585920413599</v>
+      </c>
+      <c r="J124" t="n">
+        <v>29</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>8</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-3.393131052319676</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.288013123097617</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-18.76255890627636</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-20.05057202937398</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>357</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>1.798356056213379</v>
+      </c>
+      <c r="E125" t="n">
+        <v>72.30511748076194</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>77.94865558182762</v>
+      </c>
+      <c r="H125" t="n">
+        <v>51</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-2.542377536838292</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>5.643538101065687</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>405</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>2.863961219787598</v>
+      </c>
+      <c r="E126" t="n">
+        <v>53.57299719854376</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55.74241423605972</v>
+      </c>
+      <c r="H126" t="n">
+        <v>51</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-2.214830763104239</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>32</v>
+      </c>
+      <c r="M126" t="n">
+        <v>21.75701388007849</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.169417037515963</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-31.81598331846527</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-33.98540035598123</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>450</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>4.028503894805908</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-6.892311370753109</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>10.72106327693174</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-12.09704570408212</v>
+      </c>
+      <c r="J127" t="n">
+        <v>49</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>16</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.009569284543733</v>
+      </c>
+      <c r="N127" t="n">
+        <v>17.61337464768485</v>
+      </c>
+      <c r="O127" t="n">
+        <v>9.901880655296841</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-7.711493992388008</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>554</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>4.168501377105713</v>
+      </c>
+      <c r="E128" t="n">
+        <v>38.57772054183143</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41.61290746939877</v>
+      </c>
+      <c r="H128" t="n">
+        <v>52</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-4.348921593262642</v>
+      </c>
+      <c r="J128" t="n">
+        <v>16</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>16</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-2.568182200350241</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.035186927567345</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-41.14590274218167</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-44.18108966974901</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>562</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>4.269996643066406</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.62419261466881</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42.98771257854995</v>
+      </c>
+      <c r="H129" t="n">
+        <v>46</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-6.622490510016464</v>
+      </c>
+      <c r="J129" t="n">
+        <v>8</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>8</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-4.884078227263225</v>
+      </c>
+      <c r="N129" t="n">
+        <v>12.36351996388113</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-35.50827084193204</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-47.87179080581317</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>578</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>4.563382625579834</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31.01420914102632</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>36.01292449529518</v>
+      </c>
+      <c r="H130" t="n">
+        <v>51</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-7.823387260096267</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>4.99871535426886</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>585</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>5.039174556732178</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15.15782441474974</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>25.13916158324942</v>
+      </c>
+      <c r="H131" t="n">
+        <v>50</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-5.73886660527807</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>9.981337168499678</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>655</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>6.542454719543457</v>
+      </c>
+      <c r="E132" t="n">
+        <v>49.4057879139001</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>54.1601570514373</v>
+      </c>
+      <c r="H132" t="n">
+        <v>52</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-1.77854440818341</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>11</v>
+      </c>
+      <c r="M132" t="n">
+        <v>10.07855240493037</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4.754369137537196</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-39.32723550896974</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-44.08160464650693</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>673</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>7.39276647567749</v>
+      </c>
+      <c r="E133" t="n">
+        <v>47.38408856435102</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>56.03484729313121</v>
+      </c>
+      <c r="H133" t="n">
+        <v>43</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-3.873967712833573</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>48</v>
+      </c>
+      <c r="M133" t="n">
+        <v>46.0490829479697</v>
+      </c>
+      <c r="N133" t="n">
+        <v>8.650758728780183</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-1.335005616381324</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-9.985764345161506</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>683</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>7.889183521270752</v>
+      </c>
+      <c r="E134" t="n">
+        <v>49.71938341777972</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>49.8194611121227</v>
+      </c>
+      <c r="H134" t="n">
+        <v>52</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-3.451536774232235</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>38</v>
+      </c>
+      <c r="M134" t="n">
+        <v>36.859126335456</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.1000776943429784</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-12.86025708232372</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-12.9603347766667</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>699</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>9.168254852294922</v>
+      </c>
+      <c r="E135" t="n">
+        <v>47.89583769347047</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>53.36537752652372</v>
+      </c>
+      <c r="H135" t="n">
+        <v>51</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-4.62256557120487</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>22</v>
+      </c>
+      <c r="M135" t="n">
+        <v>17.76578875868924</v>
+      </c>
+      <c r="N135" t="n">
+        <v>5.469539833053247</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-30.13004893478123</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-35.59958876783448</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>748</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>13.57952308654785</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-17.7089213536583</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.545084589494714</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-31.25375085719255</v>
+      </c>
+      <c r="J136" t="n">
+        <v>31</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>15</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-20.88625018803776</v>
+      </c>
+      <c r="N136" t="n">
+        <v>21.25400594315301</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-3.177328834379463</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-24.43133477753248</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>777</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>9.874699592590332</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.3057642408671</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>32.39553255407862</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-5.461298483568598</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>31</v>
+      </c>
+      <c r="M137" t="n">
+        <v>7.253679194288249</v>
+      </c>
+      <c r="N137" t="n">
+        <v>21.08976831321152</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-4.052085046578854</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-25.14185335979037</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>792</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>12.05037117004394</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.838841918907748</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6.978410457994669</v>
+      </c>
+      <c r="H138" t="n">
+        <v>52</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-18.06231203847821</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>16</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-12.11076843205734</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.139568539086921</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-16.94961035096508</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-19.089178890052</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>833</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>11.60575866699219</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.022124126506207</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>15.10558388095443</v>
+      </c>
+      <c r="H139" t="n">
+        <v>14</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-5.151800252824909</v>
+      </c>
+      <c r="J139" t="n">
+        <v>29</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>21</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.023294263044064</v>
+      </c>
+      <c r="N139" t="n">
+        <v>12.08345975444822</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-1.998829863462143</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-14.08228961791037</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>838</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>11.73380756378174</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.154483549742278</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.84945768746136</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-6.186861316685274</v>
+      </c>
+      <c r="J140" t="n">
+        <v>24</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>16</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-0.07915447834809261</v>
+      </c>
+      <c r="N140" t="n">
+        <v>10.69497413771909</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-3.233638028090371</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-13.92861216580946</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>891</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>12.44351863861084</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-4.5721117644692</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11.21136488761504</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-10.35906146864887</v>
+      </c>
+      <c r="J141" t="n">
+        <v>50</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>29</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-2.717693741749199</v>
+      </c>
+      <c r="N141" t="n">
+        <v>15.78347665208424</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1.854418022720001</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-13.92905862936424</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>935</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>13.07004547119141</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.352568446871989</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4.262095355802389</v>
+      </c>
+      <c r="H142" t="n">
+        <v>46</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-14.65609726790361</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>17</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-11.52182688047576</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.9095269089304</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-13.87439532734775</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-15.78392223627815</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>974</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>12.96821212768555</v>
+      </c>
+      <c r="E143" t="n">
+        <v>37.74122020662212</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>44.17002487967446</v>
+      </c>
+      <c r="H143" t="n">
+        <v>50</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-4.349500150888447</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>6.42880467305234</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>979</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>13.42744636535644</v>
+      </c>
+      <c r="E144" t="n">
+        <v>40.11688318882975</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>45.03813012243781</v>
+      </c>
+      <c r="H144" t="n">
+        <v>51</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-3.940522036582206</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>4.921246933608053</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>990</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>13.78684139251709</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.68367780115742</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>41.25727987323028</v>
+      </c>
+      <c r="H145" t="n">
+        <v>40</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-2.643010336159893</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>13.57360207207287</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>18.62380790710449</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.856034658717408</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>15.60883633544603</v>
+      </c>
+      <c r="H146" t="n">
+        <v>34</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-5.747985845513158</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>13</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-4.01792704992164</v>
+      </c>
+      <c r="N146" t="n">
+        <v>7.752801676728619</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-11.87396170863905</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-19.62676338536767</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>19.69412612915039</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-12.45288073268681</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9.325833812363864</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-17.94777312602509</v>
+      </c>
+      <c r="J147" t="n">
+        <v>51</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>26</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-0.7780720038383039</v>
+      </c>
+      <c r="N147" t="n">
+        <v>21.77871454505068</v>
+      </c>
+      <c r="O147" t="n">
+        <v>11.67480872884851</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-10.10390581620217</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>20.87798881530762</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-19.3966624943964</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.126636349982398</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-22.60045162736545</v>
+      </c>
+      <c r="J148" t="n">
+        <v>47</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>22</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-6.404338941825653</v>
+      </c>
+      <c r="N148" t="n">
+        <v>22.52329884437879</v>
+      </c>
+      <c r="O148" t="n">
+        <v>12.99232355257074</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-9.530975291808051</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>14.43165588378906</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16.94116735903099</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>22.25664978858993</v>
+      </c>
+      <c r="H149" t="n">
+        <v>40</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-3.673654055176703</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>5.315482429558937</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>15.90922737121582</v>
+      </c>
+      <c r="E150" t="n">
+        <v>13.44138250767262</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>13.64614951389165</v>
+      </c>
+      <c r="H150" t="n">
+        <v>52</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-3.584080951720483</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>35</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.81055859255532</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.2047670062190257</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-11.6308239151173</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-11.83559092133633</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>17.63717651367188</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.262600898024886</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>18.46917871753181</v>
+      </c>
+      <c r="H151" t="n">
+        <v>30</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-1.994826190292862</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>5</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-0.03695268499052662</v>
+      </c>
+      <c r="N151" t="n">
+        <v>9.206577819506922</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-9.299553583015411</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-18.50613140252234</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1274</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>17.78703117370605</v>
+      </c>
+      <c r="E152" t="n">
+        <v>13.08749628841351</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>17.47108306413867</v>
+      </c>
+      <c r="H152" t="n">
+        <v>28</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-2.820513842122862</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-0.8791353024874626</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4.383586775725158</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-13.96663159090098</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-18.35021836662613</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>18.98304176330566</v>
+      </c>
+      <c r="E153" t="n">
+        <v>19.95901364681182</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>20.14164629702322</v>
+      </c>
+      <c r="H153" t="n">
+        <v>52</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-4.388123700471376</v>
+      </c>
+      <c r="J153" t="n">
+        <v>19</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>42</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2.735250283318468</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.1826326502114064</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-17.22376336349335</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-17.40639601370475</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>19.88573265075684</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.03664305196763</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>21.48762298650485</v>
+      </c>
+      <c r="H154" t="n">
+        <v>48</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-8.728319306209276</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>35</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-1.928303022937905</v>
+      </c>
+      <c r="N154" t="n">
+        <v>6.450979934537221</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-16.96494607490554</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-23.41592600944276</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>20.17617607116699</v>
+      </c>
+      <c r="E155" t="n">
+        <v>32.3723282959261</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>40.14244911204682</v>
+      </c>
+      <c r="H155" t="n">
+        <v>47</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-4.824564503475695</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>6</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-3.340080904681897</v>
+      </c>
+      <c r="N155" t="n">
+        <v>7.770120816120723</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-35.71240920060799</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-43.48253001672872</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>20.97591590881348</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.93140318989332</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>47.99647873694909</v>
+      </c>
+      <c r="H156" t="n">
+        <v>50</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-4.033060993470362</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>20.06507554705578</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1346</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>23.7010498046875</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.278826245499822</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>30.97992360544207</v>
+      </c>
+      <c r="H157" t="n">
+        <v>40</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-9.245180969643521</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>24.70109735994225</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>29.06253623962402</v>
+      </c>
+      <c r="E158" t="n">
+        <v>14.47898453902665</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>27.94264237145162</v>
+      </c>
+      <c r="H158" t="n">
+        <v>35</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-4.176041953303095</v>
+      </c>
+      <c r="J158" t="n">
+        <v>11</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>9</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-1.175286252885138</v>
+      </c>
+      <c r="N158" t="n">
+        <v>13.46365783242496</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-15.65427079191179</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-29.11792862433675</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>29.6948070526123</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.800481879235239</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>25.21844893369866</v>
+      </c>
+      <c r="H159" t="n">
+        <v>29</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-6.21635465008521</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-3.279491947622112</v>
+      </c>
+      <c r="N159" t="n">
+        <v>21.41796705446342</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-7.079973826857351</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-28.49794088132077</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>32.00730895996094</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-3.319089487140493</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>16.17151836053969</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-7.673603469349782</v>
+      </c>
+      <c r="J160" t="n">
+        <v>34</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>28</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3.946559237539873</v>
+      </c>
+      <c r="N160" t="n">
+        <v>19.49060784768019</v>
+      </c>
+      <c r="O160" t="n">
+        <v>7.265648724680366</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-12.22495912299982</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>31.86156845092773</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.869591427243153</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>16.2480023802306</v>
+      </c>
+      <c r="H161" t="n">
+        <v>21</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-1.934566929321845</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>16</v>
+      </c>
+      <c r="M161" t="n">
+        <v>10.19791030491054</v>
+      </c>
+      <c r="N161" t="n">
+        <v>10.37841095298745</v>
+      </c>
+      <c r="O161" t="n">
+        <v>4.328318877667387</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-6.050092075320059</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>34.78951644897461</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-9.880466406129138</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6.464362347597231</v>
+      </c>
+      <c r="H162" t="n">
+        <v>12</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-13.95580466408345</v>
+      </c>
+      <c r="J162" t="n">
+        <v>51</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>7</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.9234568545602055</v>
+      </c>
+      <c r="N162" t="n">
+        <v>16.34482875372637</v>
+      </c>
+      <c r="O162" t="n">
+        <v>10.80392326068934</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-5.540905493037026</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>33.94198989868164</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-3.949059132095986</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2.060708604039897</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-19.95754989405993</v>
+      </c>
+      <c r="J163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>5</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-4.315019326928599</v>
+      </c>
+      <c r="N163" t="n">
+        <v>6.009767736135883</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-0.365960194832613</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-6.375727930968496</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +8339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6498,40 +8552,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.3953488372093</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.37869736189477</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.03664305196763</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.10472754031575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.78414595568302</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-7.734878489438968</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.40544859378825</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72.09302325581395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.32258064516129</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.58064516129032</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-10.81039105903043</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>74</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.82498378606224</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>11.35628956644038</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>22.0737403952195</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>24.63063316607127</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-8.276029675777982</v>
       </c>
     </row>
